--- a/easy-trade/easy-settle/src/main/webapp/excel/financeVerifyExcel.xlsx
+++ b/easy-trade/easy-settle/src/main/webapp/excel/financeVerifyExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>账单批次号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>应付总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,20 +459,19 @@
     <col min="6" max="6" width="14.5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="26.125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="29.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -487,16 +482,15 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,11 +521,8 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -549,11 +540,10 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-settle/src/main/webapp/excel/financeVerifyExcel.xlsx
+++ b/easy-trade/easy-settle/src/main/webapp/excel/financeVerifyExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>账单批次号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>财务审核对账明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,20 +464,22 @@
     <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
+    <col min="11" max="12" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -482,15 +492,17 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,22 +519,28 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -540,10 +558,12 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
